--- a/biology/Botanique/Étagement_altitudinal/Étagement_altitudinal.xlsx
+++ b/biology/Botanique/Étagement_altitudinal/Étagement_altitudinal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tagement_altitudinal</t>
+          <t>Étagement_altitudinal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'étagement, en écologie, est la disposition des caractères naturels en fonction de l'altitude et des climats qui en découlent. L'étagement de la végétation influence l'économie montagnarde, qui varie ainsi avec l'altitude.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tagement_altitudinal</t>
+          <t>Étagement_altitudinal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fortes différences climatiques rencontrées sur un versant sont à l'origine d'une grande variété de végétation. Au fur et à mesure que l'altitude augmente, les forêts de feuillus laissent place à celles de conifères, eux-mêmes remplacés par les prairies d'alpage. Ces dernières finissent par laisser la place aux rochers nus éventuellement recouverts de neige. La faune évolue également avec la végétation et l'altitude.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89tagement_altitudinal</t>
+          <t>Étagement_altitudinal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le botaniste et biogéographe Henri Gaussen est à l'origine en France de la notion d'étages et de successions de la végétation, fondatrice de la phytogéographie[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le botaniste et biogéographe Henri Gaussen est à l'origine en France de la notion d'étages et de successions de la végétation, fondatrice de la phytogéographie.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89tagement_altitudinal</t>
+          <t>Étagement_altitudinal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,12 +589,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On différencie schématiquement en Europe deux grandes séquences dans la zonation altitudinale : une première correspond à la région eurosibérienne et une autre la région méditerranéenne. On peut encore en citer une autre pour la région macaronésienne ou les Canaries.
-Région Eurosibérienne
-Région méditerranéenne
-Différents auteurs ont proposé une classification de l’étagement méditerranéen, voici une tentative de mise en parallèle :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Étagement_altitudinal</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tagement_altitudinal</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Région méditerranéenne</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Différents auteurs ont proposé une classification de l’étagement méditerranéen, voici une tentative de mise en parallèle :
 </t>
         </is>
       </c>
